--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,57 +537,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H2">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I2">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J2">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.417769687359753</v>
+        <v>0.4608066666666666</v>
       </c>
       <c r="N2">
-        <v>0.417769687359753</v>
+        <v>1.38242</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3929590734668486</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.401944447917342</v>
       </c>
       <c r="Q2">
-        <v>83.04108517471482</v>
+        <v>92.21253217964666</v>
       </c>
       <c r="R2">
-        <v>83.04108517471482</v>
+        <v>553.27519307788</v>
       </c>
       <c r="S2">
-        <v>0.2375622505048115</v>
+        <v>0.08859145030222088</v>
       </c>
       <c r="T2">
-        <v>0.2375622505048115</v>
+        <v>0.07305644228442547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.683329333029</v>
+        <v>200.111107</v>
       </c>
       <c r="H3">
-        <v>110.683329333029</v>
+        <v>400.222214</v>
       </c>
       <c r="I3">
-        <v>0.1322828533989602</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J3">
-        <v>0.1322828533989602</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.417769687359753</v>
+        <v>0.2151783333333333</v>
       </c>
       <c r="N3">
-        <v>0.417769687359753</v>
+        <v>0.645535</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1834962135171815</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1876920249897436</v>
       </c>
       <c r="Q3">
-        <v>46.2401398913961</v>
+        <v>43.05957448574834</v>
       </c>
       <c r="R3">
-        <v>46.2401398913961</v>
+        <v>258.35744691449</v>
       </c>
       <c r="S3">
-        <v>0.1322828533989602</v>
+        <v>0.04136867368154697</v>
       </c>
       <c r="T3">
-        <v>0.1322828533989602</v>
+        <v>0.03411444457551005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>76.2998967599214</v>
+        <v>200.111107</v>
       </c>
       <c r="H4">
-        <v>76.2998967599214</v>
+        <v>400.222214</v>
       </c>
       <c r="I4">
-        <v>0.09118959574372489</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J4">
-        <v>0.09118959574372489</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.417769687359753</v>
+        <v>0.2572343333333333</v>
       </c>
       <c r="N4">
-        <v>0.417769687359753</v>
+        <v>0.771703</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2193600323140489</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2243759033370152</v>
       </c>
       <c r="Q4">
-        <v>31.87578401497379</v>
+        <v>51.47544720174034</v>
       </c>
       <c r="R4">
-        <v>31.87578401497379</v>
+        <v>308.852683210442</v>
       </c>
       <c r="S4">
-        <v>0.09118959574372489</v>
+        <v>0.04945406459149518</v>
       </c>
       <c r="T4">
-        <v>0.09118959574372489</v>
+        <v>0.04078201681125707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.850680981866</v>
+        <v>200.111107</v>
       </c>
       <c r="H5">
-        <v>101.850680981866</v>
+        <v>400.222214</v>
       </c>
       <c r="I5">
-        <v>0.1217265398691611</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J5">
-        <v>0.1217265398691611</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.417769687359753</v>
+        <v>0.1607953333333333</v>
       </c>
       <c r="N5">
-        <v>0.417769687359753</v>
+        <v>0.482386</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.1371203799231632</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1402557648565957</v>
       </c>
       <c r="Q5">
-        <v>42.55012715117211</v>
+        <v>32.17693215376733</v>
       </c>
       <c r="R5">
-        <v>42.55012715117211</v>
+        <v>193.061592922604</v>
       </c>
       <c r="S5">
-        <v>0.1217265398691611</v>
+        <v>0.03091338040934529</v>
       </c>
       <c r="T5">
-        <v>0.1217265398691611</v>
+        <v>0.02549254565748099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>117.98524376164</v>
+        <v>200.111107</v>
       </c>
       <c r="H6">
-        <v>117.98524376164</v>
+        <v>400.222214</v>
       </c>
       <c r="I6">
-        <v>0.141009714812619</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J6">
-        <v>0.141009714812619</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.417769687359753</v>
+        <v>0.07864350000000001</v>
       </c>
       <c r="N6">
-        <v>0.417769687359753</v>
+        <v>0.157287</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.06706430077875779</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.04573185889930338</v>
       </c>
       <c r="Q6">
-        <v>49.2906583993646</v>
+        <v>15.7374378433545</v>
       </c>
       <c r="R6">
-        <v>49.2906583993646</v>
+        <v>62.949751373418</v>
       </c>
       <c r="S6">
-        <v>0.141009714812619</v>
+        <v>0.01511944645297965</v>
       </c>
       <c r="T6">
-        <v>0.141009714812619</v>
+        <v>0.008312111107760615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,1540 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>231.125574084126</v>
+        <v>117.551811</v>
       </c>
       <c r="H7">
-        <v>231.125574084126</v>
+        <v>352.655433</v>
       </c>
       <c r="I7">
-        <v>0.2762290456707231</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J7">
-        <v>0.2762290456707231</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.417769687359753</v>
+        <v>0.4608066666666666</v>
       </c>
       <c r="N7">
-        <v>0.417769687359753</v>
+        <v>1.38242</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.3929590734668486</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.401944447917342</v>
       </c>
       <c r="Q7">
-        <v>96.55725882596874</v>
+        <v>54.16865818754</v>
       </c>
       <c r="R7">
-        <v>96.55725882596874</v>
+        <v>487.51792368786</v>
       </c>
       <c r="S7">
-        <v>0.2762290456707231</v>
+        <v>0.05204151622699564</v>
       </c>
       <c r="T7">
-        <v>0.2762290456707231</v>
+        <v>0.06437361642113543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>117.551811</v>
+      </c>
+      <c r="H8">
+        <v>352.655433</v>
+      </c>
+      <c r="I8">
+        <v>0.1324349524948329</v>
+      </c>
+      <c r="J8">
+        <v>0.1601555059528365</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2151783333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.645535</v>
+      </c>
+      <c r="O8">
+        <v>0.1834962135171815</v>
+      </c>
+      <c r="P8">
+        <v>0.1876920249897436</v>
+      </c>
+      <c r="Q8">
+        <v>25.294602771295</v>
+      </c>
+      <c r="R8">
+        <v>227.651424941655</v>
+      </c>
+      <c r="S8">
+        <v>0.02430131232012965</v>
+      </c>
+      <c r="T8">
+        <v>0.03005991122554481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>117.551811</v>
+      </c>
+      <c r="H9">
+        <v>352.655433</v>
+      </c>
+      <c r="I9">
+        <v>0.1324349524948329</v>
+      </c>
+      <c r="J9">
+        <v>0.1601555059528365</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.2572343333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.771703</v>
+      </c>
+      <c r="O9">
+        <v>0.2193600323140489</v>
+      </c>
+      <c r="P9">
+        <v>0.2243759033370152</v>
+      </c>
+      <c r="Q9">
+        <v>30.238361734711</v>
+      </c>
+      <c r="R9">
+        <v>272.145255612399</v>
+      </c>
+      <c r="S9">
+        <v>0.02905093545877608</v>
+      </c>
+      <c r="T9">
+        <v>0.0359350363225644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>117.551811</v>
+      </c>
+      <c r="H10">
+        <v>352.655433</v>
+      </c>
+      <c r="I10">
+        <v>0.1324349524948329</v>
+      </c>
+      <c r="J10">
+        <v>0.1601555059528365</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1607953333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.482386</v>
+      </c>
+      <c r="O10">
+        <v>0.1371203799231632</v>
+      </c>
+      <c r="P10">
+        <v>0.1402557648565957</v>
+      </c>
+      <c r="Q10">
+        <v>18.901782633682</v>
+      </c>
+      <c r="R10">
+        <v>170.116043703138</v>
+      </c>
+      <c r="S10">
+        <v>0.01815953100119755</v>
+      </c>
+      <c r="T10">
+        <v>0.02246273298341014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>117.551811</v>
+      </c>
+      <c r="H11">
+        <v>352.655433</v>
+      </c>
+      <c r="I11">
+        <v>0.1324349524948329</v>
+      </c>
+      <c r="J11">
+        <v>0.1601555059528365</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.07864350000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.157287</v>
+      </c>
+      <c r="O11">
+        <v>0.06706430077875779</v>
+      </c>
+      <c r="P11">
+        <v>0.04573185889930338</v>
+      </c>
+      <c r="Q11">
+        <v>9.2446858483785</v>
+      </c>
+      <c r="R11">
+        <v>55.46811509027101</v>
+      </c>
+      <c r="S11">
+        <v>0.008881657487733972</v>
+      </c>
+      <c r="T11">
+        <v>0.007324209000181659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H12">
+        <v>247.769077</v>
+      </c>
+      <c r="I12">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J12">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4608066666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.38242</v>
+      </c>
+      <c r="O12">
+        <v>0.3929590734668486</v>
+      </c>
+      <c r="P12">
+        <v>0.401944447917342</v>
+      </c>
+      <c r="Q12">
+        <v>38.05788082514889</v>
+      </c>
+      <c r="R12">
+        <v>342.52092742634</v>
+      </c>
+      <c r="S12">
+        <v>0.03656339087577089</v>
+      </c>
+      <c r="T12">
+        <v>0.04522769261807109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H13">
+        <v>247.769077</v>
+      </c>
+      <c r="I13">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J13">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2151783333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.645535</v>
+      </c>
+      <c r="O13">
+        <v>0.1834962135171815</v>
+      </c>
+      <c r="P13">
+        <v>0.1876920249897436</v>
+      </c>
+      <c r="Q13">
+        <v>17.77151234679944</v>
+      </c>
+      <c r="R13">
+        <v>159.943611121195</v>
+      </c>
+      <c r="S13">
+        <v>0.01707364515052644</v>
+      </c>
+      <c r="T13">
+        <v>0.02111952847485318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H14">
+        <v>247.769077</v>
+      </c>
+      <c r="I14">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J14">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.2572343333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.771703</v>
+      </c>
+      <c r="O14">
+        <v>0.2193600323140489</v>
+      </c>
+      <c r="P14">
+        <v>0.2243759033370152</v>
+      </c>
+      <c r="Q14">
+        <v>21.24490444757011</v>
+      </c>
+      <c r="R14">
+        <v>191.204140028131</v>
+      </c>
+      <c r="S14">
+        <v>0.02041064107073467</v>
+      </c>
+      <c r="T14">
+        <v>0.02524728091060844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H15">
+        <v>247.769077</v>
+      </c>
+      <c r="I15">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J15">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1607953333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.482386</v>
+      </c>
+      <c r="O15">
+        <v>0.1371203799231632</v>
+      </c>
+      <c r="P15">
+        <v>0.1402557648565957</v>
+      </c>
+      <c r="Q15">
+        <v>13.28003710863578</v>
+      </c>
+      <c r="R15">
+        <v>119.520333977722</v>
+      </c>
+      <c r="S15">
+        <v>0.01275854506662202</v>
+      </c>
+      <c r="T15">
+        <v>0.01578189387542198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H16">
+        <v>247.769077</v>
+      </c>
+      <c r="I16">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J16">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.07864350000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.157287</v>
+      </c>
+      <c r="O16">
+        <v>0.06706430077875779</v>
+      </c>
+      <c r="P16">
+        <v>0.04573185889930338</v>
+      </c>
+      <c r="Q16">
+        <v>6.495142469016501</v>
+      </c>
+      <c r="R16">
+        <v>38.970854814099</v>
+      </c>
+      <c r="S16">
+        <v>0.006240085568073426</v>
+      </c>
+      <c r="T16">
+        <v>0.005145851542091802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H17">
+        <v>312.308212</v>
+      </c>
+      <c r="I17">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J17">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4608066666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.38242</v>
+      </c>
+      <c r="O17">
+        <v>0.3929590734668486</v>
+      </c>
+      <c r="P17">
+        <v>0.401944447917342</v>
+      </c>
+      <c r="Q17">
+        <v>47.97123538144888</v>
+      </c>
+      <c r="R17">
+        <v>431.74111843304</v>
+      </c>
+      <c r="S17">
+        <v>0.04608745920730505</v>
+      </c>
+      <c r="T17">
+        <v>0.05700864686368988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H18">
+        <v>312.308212</v>
+      </c>
+      <c r="I18">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J18">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2151783333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.645535</v>
+      </c>
+      <c r="O18">
+        <v>0.1834962135171815</v>
+      </c>
+      <c r="P18">
+        <v>0.1876920249897436</v>
+      </c>
+      <c r="Q18">
+        <v>22.40065351482444</v>
+      </c>
+      <c r="R18">
+        <v>201.60588163342</v>
+      </c>
+      <c r="S18">
+        <v>0.02152100517888027</v>
+      </c>
+      <c r="T18">
+        <v>0.02662076420563363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H19">
+        <v>312.308212</v>
+      </c>
+      <c r="I19">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J19">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.2572343333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.771703</v>
+      </c>
+      <c r="O19">
+        <v>0.2193600323140489</v>
+      </c>
+      <c r="P19">
+        <v>0.2243759033370152</v>
+      </c>
+      <c r="Q19">
+        <v>26.77879823611511</v>
+      </c>
+      <c r="R19">
+        <v>241.009184125036</v>
+      </c>
+      <c r="S19">
+        <v>0.02572722510717071</v>
+      </c>
+      <c r="T19">
+        <v>0.03182371769118652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H20">
+        <v>312.308212</v>
+      </c>
+      <c r="I20">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J20">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1607953333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.482386</v>
+      </c>
+      <c r="O20">
+        <v>0.1371203799231632</v>
+      </c>
+      <c r="P20">
+        <v>0.1402557648565957</v>
+      </c>
+      <c r="Q20">
+        <v>16.73923435042578</v>
+      </c>
+      <c r="R20">
+        <v>150.653109153832</v>
+      </c>
+      <c r="S20">
+        <v>0.01608190354391216</v>
+      </c>
+      <c r="T20">
+        <v>0.01989277725003104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H21">
+        <v>312.308212</v>
+      </c>
+      <c r="I21">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J21">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.07864350000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.157287</v>
+      </c>
+      <c r="O21">
+        <v>0.06706430077875779</v>
+      </c>
+      <c r="P21">
+        <v>0.04573185889930338</v>
+      </c>
+      <c r="Q21">
+        <v>8.187003623474</v>
+      </c>
+      <c r="R21">
+        <v>49.122021740844</v>
+      </c>
+      <c r="S21">
+        <v>0.007865509247919652</v>
+      </c>
+      <c r="T21">
+        <v>0.006486248057210682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H22">
+        <v>367.420922</v>
+      </c>
+      <c r="I22">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J22">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4608066666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.38242</v>
+      </c>
+      <c r="O22">
+        <v>0.3929590734668486</v>
+      </c>
+      <c r="P22">
+        <v>0.401944447917342</v>
+      </c>
+      <c r="Q22">
+        <v>56.43667011013778</v>
+      </c>
+      <c r="R22">
+        <v>507.93003099124</v>
+      </c>
+      <c r="S22">
+        <v>0.05422046588574945</v>
+      </c>
+      <c r="T22">
+        <v>0.06706890433169058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H23">
+        <v>367.420922</v>
+      </c>
+      <c r="I23">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J23">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2151783333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.645535</v>
+      </c>
+      <c r="O23">
+        <v>0.1834962135171815</v>
+      </c>
+      <c r="P23">
+        <v>0.1876920249897436</v>
+      </c>
+      <c r="Q23">
+        <v>26.35367387591889</v>
+      </c>
+      <c r="R23">
+        <v>237.18306488327</v>
+      </c>
+      <c r="S23">
+        <v>0.02531879489992713</v>
+      </c>
+      <c r="T23">
+        <v>0.03131850317396875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H24">
+        <v>367.420922</v>
+      </c>
+      <c r="I24">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J24">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.2572343333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.771703</v>
+      </c>
+      <c r="O24">
+        <v>0.2193600323140489</v>
+      </c>
+      <c r="P24">
+        <v>0.2243759033370152</v>
+      </c>
+      <c r="Q24">
+        <v>31.50442530779623</v>
+      </c>
+      <c r="R24">
+        <v>283.539827770166</v>
+      </c>
+      <c r="S24">
+        <v>0.03026728214683708</v>
+      </c>
+      <c r="T24">
+        <v>0.03743961652716151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H25">
+        <v>367.420922</v>
+      </c>
+      <c r="I25">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J25">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1607953333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.482386</v>
+      </c>
+      <c r="O25">
+        <v>0.1371203799231632</v>
+      </c>
+      <c r="P25">
+        <v>0.1402557648565957</v>
+      </c>
+      <c r="Q25">
+        <v>19.69318987554355</v>
+      </c>
+      <c r="R25">
+        <v>177.238708879892</v>
+      </c>
+      <c r="S25">
+        <v>0.01891986057548584</v>
+      </c>
+      <c r="T25">
+        <v>0.02340323525769802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H26">
+        <v>367.420922</v>
+      </c>
+      <c r="I26">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J26">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.07864350000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.157287</v>
+      </c>
+      <c r="O26">
+        <v>0.06706430077875779</v>
+      </c>
+      <c r="P26">
+        <v>0.04573185889930338</v>
+      </c>
+      <c r="Q26">
+        <v>9.631755759769002</v>
+      </c>
+      <c r="R26">
+        <v>57.79053455861401</v>
+      </c>
+      <c r="S26">
+        <v>0.009253527601349671</v>
+      </c>
+      <c r="T26">
+        <v>0.007630869602305101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>260.790245</v>
+      </c>
+      <c r="H27">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I27">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J27">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.4608066666666666</v>
+      </c>
+      <c r="N27">
+        <v>1.38242</v>
+      </c>
+      <c r="O27">
+        <v>0.3929590734668486</v>
+      </c>
+      <c r="P27">
+        <v>0.401944447917342</v>
+      </c>
+      <c r="Q27">
+        <v>120.1738834976333</v>
+      </c>
+      <c r="R27">
+        <v>721.0433009857999</v>
+      </c>
+      <c r="S27">
+        <v>0.1154547909688067</v>
+      </c>
+      <c r="T27">
+        <v>0.09520914539832953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>260.790245</v>
+      </c>
+      <c r="H28">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I28">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J28">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2151783333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.645535</v>
+      </c>
+      <c r="O28">
+        <v>0.1834962135171815</v>
+      </c>
+      <c r="P28">
+        <v>0.1876920249897436</v>
+      </c>
+      <c r="Q28">
+        <v>56.11641026869166</v>
+      </c>
+      <c r="R28">
+        <v>336.69846161215</v>
+      </c>
+      <c r="S28">
+        <v>0.05391278228617107</v>
+      </c>
+      <c r="T28">
+        <v>0.04445887333423319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>260.790245</v>
+      </c>
+      <c r="H29">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I29">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J29">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.2572343333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.771703</v>
+      </c>
+      <c r="O29">
+        <v>0.2193600323140489</v>
+      </c>
+      <c r="P29">
+        <v>0.2243759033370152</v>
+      </c>
+      <c r="Q29">
+        <v>67.08420481241166</v>
+      </c>
+      <c r="R29">
+        <v>402.50522887447</v>
+      </c>
+      <c r="S29">
+        <v>0.06444988393903518</v>
+      </c>
+      <c r="T29">
+        <v>0.05314823507423728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>260.790245</v>
+      </c>
+      <c r="H30">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I30">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J30">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.1607953333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.482386</v>
+      </c>
+      <c r="O30">
+        <v>0.1371203799231632</v>
+      </c>
+      <c r="P30">
+        <v>0.1402557648565957</v>
+      </c>
+      <c r="Q30">
+        <v>41.93385437485666</v>
+      </c>
+      <c r="R30">
+        <v>251.60312624914</v>
+      </c>
+      <c r="S30">
+        <v>0.04028715932660029</v>
+      </c>
+      <c r="T30">
+        <v>0.03322257983255349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>260.790245</v>
+      </c>
+      <c r="H31">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I31">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J31">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.07864350000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.157287</v>
+      </c>
+      <c r="O31">
+        <v>0.06706430077875779</v>
+      </c>
+      <c r="P31">
+        <v>0.04573185889930338</v>
+      </c>
+      <c r="Q31">
+        <v>20.5094576326575</v>
+      </c>
+      <c r="R31">
+        <v>82.03783053062999</v>
+      </c>
+      <c r="S31">
+        <v>0.01970407442070141</v>
+      </c>
+      <c r="T31">
+        <v>0.01083256958975352</v>
       </c>
     </row>
   </sheetData>
